--- a/www/ig/fhir/sdo/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/www/ig/fhir/sdo/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.2-ballot-3</t>
+    <t>4.0.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-18T09:33:23+00:00</t>
+    <t>2024-07-03T07:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/sdo/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/www/ig/fhir/sdo/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.2</t>
+    <t>4.0.3-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-03T07:41:49+00:00</t>
+    <t>2024-12-19T14:39:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/sdo/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/www/ig/fhir/sdo/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.3-ballot</t>
+    <t>4.0.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T14:39:02+00:00</t>
+    <t>2025-01-30T17:28:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/sdo/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/www/ig/fhir/sdo/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.3</t>
+    <t>4.0.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-30T17:28:10+00:00</t>
+    <t>2025-06-19T08:13:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/sdo/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/www/ig/fhir/sdo/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.4</t>
+    <t>4.0.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T08:13:37+00:00</t>
+    <t>2025-10-13T14:57:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -165,7 +165,7 @@
     <t>dateStatutESMS</t>
   </si>
   <si>
-    <t>Permet de définir la date d'entrée dans le statut</t>
+    <t>La spécification fonctionnelle des échanges (https://esante.gouv.fr/volet-si-esms-viatrajectoire-module-ph) donne la signification de cette date par rapport au statut ESMS</t>
   </si>
   <si>
     <t>idUnite</t>
@@ -213,7 +213,7 @@
     <t>dateStatutUnite</t>
   </si>
   <si>
-    <t>Permet de définir la date d'entrée renseignée par l'utilisateur pour les statuts</t>
+    <t>La spécification fonctionnelle des échanges (https://esante.gouv.fr/volet-si-esms-viatrajectoire-module-ph) donne la signification de cette date par rapport au statut de l’unité</t>
   </si>
   <si>
     <t>motifUnite</t>

--- a/www/ig/fhir/sdo/CodeSystem-input-task-sdo-codesystem.xlsx
+++ b/www/ig/fhir/sdo/CodeSystem-input-task-sdo-codesystem.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.5</t>
+    <t>4.0.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-13T14:57:20+00:00</t>
+    <t>2025-12-15T14:22:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Code System pour la définition des éléments spécifiques de input dans ressource SDOTask</t>
+    <t>Code System pour la définition des éléments spécifiques de input dans ressource ESMSTask</t>
   </si>
   <si>
     <t>Purpose</t>
